--- a/biology/Médecine/Alfred_Thooris/Alfred_Thooris.xlsx
+++ b/biology/Médecine/Alfred_Thooris/Alfred_Thooris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Eugène Auguste Thooris (1866-1956)  est un médecin français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Thooris est un des pionniers français de la morphopsychologie théorique et appliquée. C'est un des représentants les plus marquants de l'école morphologique française avec Claude Sigaud et Léon Mac-Auliffe. Il collabore également aux travaux de l’Abbé Rousselot au laboratoire de phonétique expérimentale du Collège de France, contribuant alors à la Revue de phonétique. Il se rapproche ensuite de la Fédération française d'éducation physique vouée à l'hébertisme. Beaucoup de ses ouvrages - publié en général sous le pseudonyme de docteur Van Borre - sont consacrés aux activités physiques et sportives. 
 </t>
@@ -542,7 +556,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Analyse d'un vœu relatif à l'annexion de l'histoire des religions et de la suggestion mentale aux programmes d'études dans les classes supérieures, 1902
 Conférence sur le criticisme ,... à propos du centenaire de Kant Impr. nouvelle (Association ouvrière) 1904
